--- a/routes/commerce/合价上传模板.xlsx
+++ b/routes/commerce/合价上传模板.xlsx
@@ -2298,8 +2298,8 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -2314,7 +2314,7 @@
     <col min="8" max="8" width="51.0714285714286" customWidth="1"/>
     <col min="9" max="9" width="10.8928571428571" customWidth="1"/>
     <col min="10" max="10" width="38.75" customWidth="1"/>
-    <col min="11" max="11" width="14.8214285714286" customWidth="1"/>
+    <col min="11" max="11" width="22.7857142857143" customWidth="1"/>
     <col min="12" max="12" width="49.8214285714286" customWidth="1"/>
     <col min="13" max="13" width="37.1428571428571" customWidth="1"/>
     <col min="14" max="14" width="26.4285714285714" customWidth="1"/>
